--- a/support/specifications/ccda/CCDA to FHIR Conversion Spec - Epic.xlsx
+++ b/support/specifications/ccda/CCDA to FHIR Conversion Spec - Epic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" tabRatio="709"/>
+    <workbookView windowWidth="28800" windowHeight="12180" tabRatio="709" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Epic" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="441">
   <si>
     <t>Epic CCDA</t>
   </si>
@@ -3877,7 +3877,50 @@
     </r>
   </si>
   <si>
-    <t>"id" : "N6645918CUMC20250121T1024400530",</t>
+    <r>
+      <t>Combine the Facility ID obtained from the header variable '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X-TechBD-Facility-ID'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t> with the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> id.extension</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> value from the Observation element.</t>
+    </r>
+  </si>
+  <si>
+    <t>"id": "ACPNY-c6a74afc-5782-47e0-84b8-08e143d27c91"</t>
   </si>
   <si>
     <t>"http://shinny.org/us/ny/hrsn/StructureDefinition/shinny-observation-screening-response"</t>
@@ -4414,6 +4457,9 @@
       "method" : "POST",
       "url" : "http://shinny.org/us/ny/hrsn/Observation/N6645918CUMC20250121T1024400530"
     }</t>
+  </si>
+  <si>
+    <t>"id" : "N6645918CUMC20250121T1024400530",</t>
   </si>
   <si>
     <t>Provided the fixed value, "en"</t>
@@ -4905,6 +4951,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">For </t>
     </r>
     <r>
@@ -5032,7 +5085,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5262,6 +5315,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -5284,11 +5345,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="Consolas"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF00B050"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF00B050"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <i/>
@@ -5761,7 +5834,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5787,9 +5860,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6390,24 +6460,24 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.88571428571429" style="27"/>
+    <col min="1" max="1" width="8.88571428571429" style="26"/>
     <col min="2" max="2" width="35.2190476190476" customWidth="1"/>
     <col min="3" max="3" width="92.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="27">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -6418,10 +6488,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="27">
+      <c r="A4" s="26">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -6429,10 +6499,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
@@ -6440,10 +6510,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="27">
+      <c r="A6" s="26">
         <v>4</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
@@ -6451,10 +6521,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="27">
+      <c r="A7" s="26">
         <v>5</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
@@ -6508,10 +6578,10 @@
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -6523,7 +6593,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" ht="60" spans="2:6">
@@ -6533,9 +6603,8 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4"/>
       <c r="E4" s="6" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F4" s="7"/>
     </row>
@@ -6553,28 +6622,28 @@
       <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>422</v>
+      <c r="C6" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="D6"/>
       <c r="E6" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>424</v>
+        <v>425</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>425</v>
+      <c r="C7" s="10" t="s">
+        <v>427</v>
       </c>
       <c r="D7" t="s">
-        <v>426</v>
-      </c>
-      <c r="E7" s="12"/>
+        <v>428</v>
+      </c>
+      <c r="E7" s="11"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" ht="120" spans="2:5">
@@ -6582,13 +6651,13 @@
         <v>80</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="D8" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>428</v>
+      <c r="E8" s="13" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="9" ht="60" spans="2:5">
@@ -6596,9 +6665,9 @@
         <v>84</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="D9" s="13"/>
+        <v>431</v>
+      </c>
+      <c r="D9" s="12"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="2:5">
@@ -6606,9 +6675,9 @@
         <v>86</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="D10" s="13"/>
+        <v>432</v>
+      </c>
+      <c r="D10" s="12"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="2:5">
@@ -6616,9 +6685,9 @@
         <v>88</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="D11" s="13"/>
+        <v>433</v>
+      </c>
+      <c r="D11" s="12"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="2:5">
@@ -6626,9 +6695,9 @@
         <v>90</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="D12" s="13"/>
+        <v>434</v>
+      </c>
+      <c r="D12" s="12"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="2:5">
@@ -6636,9 +6705,9 @@
         <v>92</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D13" s="13"/>
+        <v>435</v>
+      </c>
+      <c r="D13" s="12"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="2:5">
@@ -6646,19 +6715,19 @@
         <v>94</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D14" s="13"/>
+        <v>436</v>
+      </c>
+      <c r="D14" s="12"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="D15" s="13"/>
+        <v>438</v>
+      </c>
+      <c r="D15" s="12"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="2:6">
@@ -6668,8 +6737,8 @@
       <c r="C16" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>437</v>
+      <c r="D16" s="14" t="s">
+        <v>439</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="4"/>
@@ -6679,15 +6748,15 @@
         <v>191</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="D17" s="15"/>
+        <v>440</v>
+      </c>
+      <c r="D17" s="14"/>
       <c r="E17" s="8"/>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="5:6">
       <c r="E18" s="8"/>
-      <c r="F18" s="16"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="4"/>
@@ -6695,12 +6764,12 @@
     <row r="20" spans="2:4">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="17"/>
+      <c r="D20" s="16"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="17"/>
+      <c r="D21" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6840,7 +6909,7 @@
       <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -6859,7 +6928,7 @@
       <c r="C18" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6867,19 +6936,19 @@
       <c r="B19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" ht="60" spans="2:5">
       <c r="B20" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" ht="30" spans="2:5">
       <c r="B21" s="4" t="s">
@@ -6919,19 +6988,19 @@
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6950,7 +7019,7 @@
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -6962,7 +7031,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -6970,7 +7039,7 @@
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -6995,7 +7064,7 @@
       <c r="C8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -7003,13 +7072,13 @@
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="4" t="s">
@@ -7018,29 +7087,29 @@
       <c r="C10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>63</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -7051,7 +7120,7 @@
       <c r="C13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>70</v>
       </c>
     </row>
@@ -7073,18 +7142,18 @@
       <c r="C15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7095,10 +7164,10 @@
       <c r="C17" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>83</v>
       </c>
     </row>
@@ -7109,7 +7178,7 @@
       <c r="C18" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="4" t="s">
@@ -7118,7 +7187,7 @@
       <c r="C19" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="4" t="s">
@@ -7127,7 +7196,7 @@
       <c r="C20" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="4" t="s">
@@ -7136,7 +7205,7 @@
       <c r="C21" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="4" t="s">
@@ -7145,7 +7214,7 @@
       <c r="C22" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="13"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="4" t="s">
@@ -7154,7 +7223,7 @@
       <c r="C23" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="13"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" ht="48" customHeight="1" spans="2:5">
       <c r="B24" s="4" t="s">
@@ -7182,7 +7251,7 @@
       <c r="C26" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>103</v>
       </c>
     </row>
@@ -7193,7 +7262,7 @@
       <c r="C27" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>106</v>
       </c>
       <c r="E27" s="8" t="s">
@@ -7207,7 +7276,7 @@
       <c r="C28" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="15"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="2:5">
@@ -7217,7 +7286,7 @@
       <c r="C29" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="15"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="8"/>
     </row>
     <row r="30" ht="30" spans="2:5">
@@ -7227,7 +7296,7 @@
       <c r="C30" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="15"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="8"/>
     </row>
     <row r="31" spans="2:5">
@@ -7237,7 +7306,7 @@
       <c r="C31" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="15"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="8"/>
     </row>
     <row r="32" ht="45" spans="2:5">
@@ -7247,7 +7316,7 @@
       <c r="C32" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="14" t="s">
         <v>116</v>
       </c>
       <c r="E32" s="8" t="s">
@@ -7261,7 +7330,7 @@
       <c r="C33" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="15"/>
+      <c r="D33" s="14"/>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="4" t="s">
@@ -7270,7 +7339,7 @@
       <c r="C34" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="15"/>
+      <c r="D34" s="14"/>
     </row>
     <row r="35" ht="30" spans="2:4">
       <c r="B35" s="4" t="s">
@@ -7279,7 +7348,7 @@
       <c r="C35" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="14"/>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="4" t="s">
@@ -7288,7 +7357,7 @@
       <c r="C36" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D36" s="15"/>
+      <c r="D36" s="14"/>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="4" t="s">
@@ -7297,7 +7366,7 @@
       <c r="C37" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="14" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7308,8 +7377,8 @@
       <c r="C38" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="30" t="s">
+      <c r="D38" s="14"/>
+      <c r="E38" s="29" t="s">
         <v>125</v>
       </c>
     </row>
@@ -7317,7 +7386,7 @@
       <c r="B39" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>127</v>
       </c>
       <c r="F39" s="4" t="s">
@@ -7328,7 +7397,7 @@
       <c r="B40" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>130</v>
       </c>
       <c r="F40" s="4" t="s">
@@ -7336,31 +7405,31 @@
       </c>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="17" t="s">
         <v>132</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D41" s="11"/>
+      <c r="D41" s="10"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="17" t="s">
         <v>134</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D42" s="11"/>
+      <c r="D42" s="10"/>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="17" t="s">
         <v>136</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D43" s="11"/>
+      <c r="D43" s="10"/>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="4" t="s">
@@ -7369,30 +7438,30 @@
       <c r="C44" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D44" s="11"/>
+      <c r="D44" s="10"/>
     </row>
     <row r="45" ht="195" spans="2:5">
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="18" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="46" ht="195" spans="2:5">
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="10" t="s">
         <v>145</v>
       </c>
       <c r="E46" s="8" t="s">
@@ -7400,16 +7469,16 @@
       </c>
     </row>
     <row r="47" ht="195" spans="2:5">
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="17" t="s">
         <v>147</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E47" s="25"/>
+      <c r="E47" s="24"/>
     </row>
     <row r="48" customFormat="1" spans="2:5">
       <c r="B48" s="4" t="s">
@@ -7418,7 +7487,7 @@
       <c r="C48" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D48" s="11"/>
+      <c r="D48" s="10"/>
       <c r="E48" s="4"/>
     </row>
     <row r="49" customFormat="1" spans="2:5">
@@ -7428,7 +7497,7 @@
       <c r="C49" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D49" s="11"/>
+      <c r="D49" s="10"/>
       <c r="E49" s="4"/>
     </row>
     <row r="50" customFormat="1" spans="2:5">
@@ -7438,7 +7507,7 @@
       <c r="C50" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D50" s="11"/>
+      <c r="D50" s="10"/>
       <c r="E50" s="4"/>
     </row>
     <row r="51" customFormat="1" spans="2:5">
@@ -7448,17 +7517,17 @@
       <c r="C51" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D51" s="11"/>
+      <c r="D51" s="10"/>
       <c r="E51" s="4"/>
     </row>
     <row r="52" ht="150" spans="2:5">
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="10" t="s">
         <v>158</v>
       </c>
       <c r="E52" s="8" t="s">
@@ -7469,10 +7538,10 @@
       <c r="B53" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D53" s="11"/>
+      <c r="D53" s="10"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" customFormat="1" spans="2:5">
@@ -7482,7 +7551,7 @@
       <c r="C54" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D54" s="11"/>
+      <c r="D54" s="10"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" customFormat="1" spans="2:5">
@@ -7492,7 +7561,7 @@
       <c r="C55" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D55" s="11"/>
+      <c r="D55" s="10"/>
       <c r="E55" s="8"/>
     </row>
     <row r="56" customFormat="1" spans="2:5">
@@ -7502,7 +7571,7 @@
       <c r="C56" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D56" s="11"/>
+      <c r="D56" s="10"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" customFormat="1" spans="2:5">
@@ -7512,30 +7581,30 @@
       <c r="C57" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D57" s="11"/>
+      <c r="D57" s="10"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="2:5">
       <c r="B58" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D58" s="11"/>
+      <c r="D58" s="10"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" ht="180" spans="2:5">
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="18" t="s">
         <v>172</v>
       </c>
     </row>
@@ -7543,7 +7612,7 @@
       <c r="B60" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="10" t="s">
         <v>174</v>
       </c>
       <c r="F60" s="4" t="s">
@@ -7557,7 +7626,7 @@
       <c r="C61" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D61" s="11"/>
+      <c r="D61" s="10"/>
       <c r="F61" s="4"/>
     </row>
     <row r="62" spans="2:6">
@@ -7567,15 +7636,15 @@
       <c r="C62" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D62" s="11"/>
+      <c r="D62" s="10"/>
       <c r="F62" s="4"/>
     </row>
     <row r="63" ht="210" spans="2:6">
       <c r="B63" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D63" s="11"/>
-      <c r="E63" s="14" t="s">
+      <c r="D63" s="10"/>
+      <c r="E63" s="13" t="s">
         <v>181</v>
       </c>
       <c r="F63" s="4"/>
@@ -7584,7 +7653,7 @@
       <c r="B64" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="12" t="s">
         <v>183</v>
       </c>
       <c r="F64" s="4" t="s">
@@ -7598,7 +7667,7 @@
       <c r="C65" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D65" s="13"/>
+      <c r="D65" s="12"/>
     </row>
     <row r="66" ht="40" customHeight="1" spans="2:4">
       <c r="B66" s="4" t="s">
@@ -7607,7 +7676,7 @@
       <c r="C66" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D66" s="13"/>
+      <c r="D66" s="12"/>
     </row>
     <row r="67" spans="2:4">
       <c r="B67" s="4" t="s">
@@ -7616,7 +7685,7 @@
       <c r="C67" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D67" s="15" t="s">
+      <c r="D67" s="14" t="s">
         <v>190</v>
       </c>
     </row>
@@ -7627,7 +7696,7 @@
       <c r="C68" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D68" s="15"/>
+      <c r="D68" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7731,19 +7800,19 @@
       <c r="C6" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="26"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" ht="120" spans="2:6">
       <c r="B7" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>199</v>
       </c>
       <c r="D7" t="s">
         <v>200</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>201</v>
       </c>
       <c r="F7" s="4"/>
@@ -7755,7 +7824,7 @@
       <c r="C8" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>204</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -7769,7 +7838,7 @@
       <c r="C9" t="s">
         <v>207</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="8" t="s">
         <v>205</v>
       </c>
@@ -7781,7 +7850,7 @@
       <c r="C10" t="s">
         <v>209</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="8" t="s">
         <v>205</v>
       </c>
@@ -7793,7 +7862,7 @@
       <c r="C11" t="s">
         <v>211</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>212</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -7843,7 +7912,7 @@
       <c r="C15" t="s">
         <v>222</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>223</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -7881,7 +7950,7 @@
       <c r="C18" t="s">
         <v>232</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>233</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -7921,7 +7990,7 @@
       <c r="C21" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>239</v>
       </c>
       <c r="E21" s="8"/>
@@ -7934,7 +8003,7 @@
       <c r="C22" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="8"/>
       <c r="F22" s="4"/>
     </row>
@@ -7975,7 +8044,7 @@
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -8024,7 +8093,7 @@
     </row>
     <row r="5" customFormat="1" spans="1:6">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -8035,7 +8104,7 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" customFormat="1" ht="30" spans="2:6">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -8049,13 +8118,13 @@
       <c r="B7" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>246</v>
       </c>
       <c r="D7" t="s">
         <v>247</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>248</v>
       </c>
     </row>
@@ -8066,10 +8135,10 @@
       <c r="C8" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" ht="30" spans="2:5">
       <c r="B9" s="5" t="s">
@@ -8078,8 +8147,8 @@
       <c r="C9" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="25"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="5" t="s">
@@ -8088,17 +8157,17 @@
       <c r="C10" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" ht="30" spans="2:4">
       <c r="B11" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>258</v>
       </c>
     </row>
@@ -8106,8 +8175,8 @@
       <c r="B12" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="13" t="s">
         <v>260</v>
       </c>
     </row>
@@ -8118,7 +8187,7 @@
       <c r="C13" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" customFormat="1" spans="2:3">
       <c r="B14" t="s">
@@ -8135,7 +8204,7 @@
       <c r="C15" t="s">
         <v>226</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>266</v>
       </c>
     </row>
@@ -8154,7 +8223,7 @@
       <c r="C17" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>271</v>
       </c>
     </row>
@@ -8173,7 +8242,7 @@
       <c r="C19" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>276</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -8187,7 +8256,7 @@
       <c r="C20" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="E20" s="16"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" ht="409.5" spans="2:5">
       <c r="B21" t="s">
@@ -8196,7 +8265,7 @@
       <c r="C21" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>282</v>
       </c>
     </row>
@@ -8207,7 +8276,7 @@
       <c r="C22" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="E22" s="23"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" ht="66" customHeight="1" spans="2:5">
       <c r="B23" t="s">
@@ -8216,7 +8285,7 @@
       <c r="C23" t="s">
         <v>286</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>287</v>
       </c>
       <c r="E23" s="4"/>
@@ -8228,7 +8297,7 @@
       <c r="C24" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="D24" s="11"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" customFormat="1" spans="2:4">
@@ -8238,7 +8307,7 @@
       <c r="C25" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="14" t="s">
         <v>290</v>
       </c>
     </row>
@@ -8249,7 +8318,7 @@
       <c r="C26" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8360,7 +8429,7 @@
       <c r="E7" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>298</v>
       </c>
     </row>
@@ -8368,10 +8437,10 @@
       <c r="B8" t="s">
         <v>299</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>301</v>
       </c>
     </row>
@@ -8382,7 +8451,7 @@
       <c r="C9" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="8"/>
     </row>
     <row r="10" ht="30" spans="2:5">
@@ -8392,7 +8461,7 @@
       <c r="C10" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="8"/>
     </row>
     <row r="11" ht="30" spans="2:5">
@@ -8402,7 +8471,7 @@
       <c r="C11" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="8"/>
     </row>
     <row r="12" ht="30" spans="2:5">
@@ -8412,17 +8481,17 @@
       <c r="C12" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="8"/>
     </row>
     <row r="13" customFormat="1" ht="66" customHeight="1" spans="2:4">
       <c r="B13" t="s">
         <v>309</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>311</v>
       </c>
     </row>
@@ -8433,8 +8502,8 @@
       <c r="C14" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="23"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" customFormat="1" ht="30" spans="2:5">
       <c r="B15" s="4" t="s">
@@ -8443,8 +8512,8 @@
       <c r="C15" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="23"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" customFormat="1" ht="30" spans="2:5">
       <c r="B16" s="4" t="s">
@@ -8453,7 +8522,7 @@
       <c r="C16" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" customFormat="1" ht="30" spans="2:4">
@@ -8463,16 +8532,16 @@
       <c r="C17" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" ht="60" spans="2:5">
       <c r="B18" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>321</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -8483,7 +8552,7 @@
       <c r="B19" t="s">
         <v>323</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>324</v>
       </c>
       <c r="F19" s="8" t="s">
@@ -8495,7 +8564,7 @@
         <v>326</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="11"/>
+      <c r="D20" s="10"/>
       <c r="F20" s="8" t="s">
         <v>327</v>
       </c>
@@ -8505,7 +8574,7 @@
         <v>96</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>328</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -8520,7 +8589,7 @@
       <c r="C22" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="D22" s="11"/>
+      <c r="D22" s="10"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" customFormat="1" ht="195" spans="2:6">
@@ -8530,8 +8599,8 @@
       <c r="C23" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="14" t="s">
+      <c r="D23" s="10"/>
+      <c r="E23" s="13" t="s">
         <v>103</v>
       </c>
       <c r="F23" s="4"/>
@@ -8543,7 +8612,7 @@
       <c r="C24" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>332</v>
       </c>
       <c r="E24" s="4"/>
@@ -8556,7 +8625,7 @@
       <c r="C25" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="D25" s="11"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
@@ -8567,7 +8636,7 @@
       <c r="C26" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D26" s="11"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
@@ -8578,7 +8647,7 @@
       <c r="C27" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="D27" s="11"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
@@ -8589,7 +8658,7 @@
       <c r="C28" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="D28" s="11"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
@@ -8600,7 +8669,7 @@
       <c r="C29" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="D29" s="11"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
@@ -8611,7 +8680,7 @@
       <c r="C30" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="D30" s="11"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
@@ -8622,7 +8691,7 @@
       <c r="C31" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="14" t="s">
         <v>339</v>
       </c>
     </row>
@@ -8633,7 +8702,7 @@
       <c r="C32" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D32" s="15"/>
+      <c r="D32" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8689,7 +8758,7 @@
       </c>
     </row>
     <row r="2" ht="45" spans="1:1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>341</v>
       </c>
     </row>
@@ -8716,7 +8785,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -8727,7 +8796,7 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" ht="30" spans="2:6">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -8758,7 +8827,7 @@
       <c r="D8" t="s">
         <v>347</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>348</v>
       </c>
     </row>
@@ -8769,7 +8838,7 @@
       <c r="C9" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>351</v>
       </c>
     </row>
@@ -8780,7 +8849,7 @@
       <c r="C10" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="5" t="s">
@@ -8789,7 +8858,7 @@
       <c r="C11" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="8"/>
     </row>
     <row r="12" ht="30" spans="2:4">
@@ -8799,7 +8868,7 @@
       <c r="C12" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" ht="38" customHeight="1" spans="2:4">
       <c r="B13" s="4" t="s">
@@ -8808,7 +8877,7 @@
       <c r="C13" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>358</v>
       </c>
     </row>
@@ -8819,7 +8888,7 @@
       <c r="C14" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" ht="153" customHeight="1" spans="2:5">
       <c r="B15" s="4" t="s">
@@ -8828,7 +8897,7 @@
       <c r="C15" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="8" t="s">
         <v>363</v>
       </c>
@@ -8840,7 +8909,7 @@
       <c r="C16" t="s">
         <v>226</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>266</v>
       </c>
     </row>
@@ -8873,7 +8942,7 @@
       <c r="D19" t="s">
         <v>369</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="15" t="s">
         <v>370</v>
       </c>
     </row>
@@ -8884,7 +8953,7 @@
       <c r="C20" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>371</v>
       </c>
     </row>
@@ -8895,7 +8964,7 @@
       <c r="C21" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8913,8 +8982,8 @@
   <sheetPr/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -8957,7 +9026,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="20"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1"/>
@@ -8968,21 +9037,21 @@
         <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" ht="46.5" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
+      <c r="C4" s="18" t="s">
+        <v>374</v>
       </c>
       <c r="D4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -8993,11 +9062,11 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" customFormat="1" ht="30" spans="2:6">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -9019,24 +9088,24 @@
         <v>198</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D8" t="s">
         <v>347</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="9" ht="139" customHeight="1" spans="2:5">
       <c r="B9" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="E9" s="19" t="s">
         <v>379</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="10" ht="45" spans="2:5">
@@ -9044,11 +9113,11 @@
         <v>215</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" ht="210" spans="2:5">
@@ -9056,8 +9125,8 @@
         <v>210</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="12" t="s">
-        <v>382</v>
+      <c r="E11" s="11" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="12" ht="210" spans="2:5">
@@ -9065,17 +9134,17 @@
         <v>213</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="12" t="s">
-        <v>383</v>
+      <c r="E12" s="11" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" ht="84" customHeight="1" spans="2:5">
@@ -9085,10 +9154,10 @@
       <c r="C14" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="5" t="s">
@@ -9097,8 +9166,8 @@
       <c r="C15" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="5" t="s">
@@ -9107,19 +9176,19 @@
       <c r="C16" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" ht="30" spans="2:5">
       <c r="B17" s="5" t="s">
         <v>355</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="D17" s="11"/>
+        <v>387</v>
+      </c>
+      <c r="D17" s="10"/>
       <c r="E17" s="8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" ht="105" spans="2:5">
@@ -9127,13 +9196,13 @@
         <v>356</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="D18" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="D18" s="10" t="s">
         <v>390</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="19" ht="30" spans="2:3">
@@ -9141,7 +9210,7 @@
         <v>359</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" ht="30" spans="2:3">
@@ -9154,35 +9223,35 @@
     </row>
     <row r="21" ht="37" customHeight="1" spans="2:5">
       <c r="B21" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="D21" s="13" t="s">
         <v>394</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>395</v>
       </c>
       <c r="E21" s="8"/>
     </row>
     <row r="22" ht="75" spans="2:5">
       <c r="B22" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C22" t="s">
-        <v>396</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="21" t="s">
         <v>397</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="20" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="23" ht="45" spans="2:5">
       <c r="B23" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="12" t="s">
         <v>399</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="11" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="24" ht="75" spans="2:4">
@@ -9192,7 +9261,7 @@
       <c r="C24" t="s">
         <v>226</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>266</v>
       </c>
     </row>
@@ -9206,13 +9275,13 @@
     </row>
     <row r="26" ht="45" spans="2:4">
       <c r="B26" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C26" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" ht="225" spans="2:5">
@@ -9223,19 +9292,19 @@
       <c r="D27" t="s">
         <v>366</v>
       </c>
-      <c r="E27" s="19" t="s">
-        <v>403</v>
+      <c r="E27" s="18" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="28" ht="45" spans="2:4">
       <c r="B28" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>229</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="2:6">
@@ -9257,8 +9326,8 @@
       <c r="C30" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>406</v>
+      <c r="D30" s="14" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="31" ht="46" customHeight="1" spans="2:4">
@@ -9268,7 +9337,7 @@
       <c r="C31" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D31" s="15"/>
+      <c r="D31" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9352,12 +9421,12 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -9368,11 +9437,11 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" customFormat="1" ht="30" spans="2:6">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -9386,7 +9455,7 @@
         <v>53</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>345</v>
@@ -9397,24 +9466,24 @@
         <v>198</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D8" t="s">
         <v>347</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="9" ht="409" customHeight="1" spans="2:5">
       <c r="B9" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>408</v>
+        <v>378</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>410</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" ht="165" spans="2:5">
@@ -9424,11 +9493,11 @@
       <c r="C10" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>411</v>
+      <c r="D10" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="11" ht="180" spans="2:5">
@@ -9436,8 +9505,8 @@
         <v>352</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="E11" s="12" t="s">
-        <v>412</v>
+      <c r="E11" s="11" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="12" ht="150" spans="2:5">
@@ -9445,8 +9514,8 @@
         <v>354</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="E12" s="12" t="s">
-        <v>413</v>
+      <c r="E12" s="11" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="13" ht="75" spans="2:4">
@@ -9456,7 +9525,7 @@
       <c r="C13" t="s">
         <v>226</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>266</v>
       </c>
     </row>
@@ -9470,13 +9539,13 @@
     </row>
     <row r="15" ht="45" spans="2:4">
       <c r="B15" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" ht="225" spans="2:5">
@@ -9487,19 +9556,19 @@
       <c r="D16" t="s">
         <v>366</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>403</v>
+      <c r="E16" s="18" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="17" ht="45" spans="2:4">
       <c r="B17" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>229</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -9510,21 +9579,21 @@
         <v>369</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="F18" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="19" ht="165" spans="2:5">
       <c r="B19" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E19" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -9534,8 +9603,8 @@
       <c r="C20" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>406</v>
+      <c r="D20" s="14" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="21" ht="46" customHeight="1" spans="2:4">
@@ -9545,7 +9614,7 @@
       <c r="C21" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/support/specifications/ccda/CCDA to FHIR Conversion Spec - Epic.xlsx
+++ b/support/specifications/ccda/CCDA to FHIR Conversion Spec - Epic.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="443">
   <si>
     <t>Epic CCDA</t>
   </si>
@@ -128,7 +128,7 @@
     <t>entry</t>
   </si>
   <si>
-    <t>Resources - Patient, Encounter, Organization, Consent, Sexual orientation Observation , Observations, Grouper Observation</t>
+    <t>Resources - Patient, Encounter, Organization, Consent, Sexual orientation, Observations, Grouper Observation</t>
   </si>
   <si>
     <t>FHIR Resources</t>
@@ -3142,6 +3142,9 @@
     </r>
   </si>
   <si>
+    <t>Both TAX and NPI numbers will be added to the Identifier if available.</t>
+  </si>
+  <si>
     <t>identifier (TAX) -&gt; system</t>
   </si>
   <si>
@@ -3594,20 +3597,21 @@
         <scheme val="minor"/>
       </rPr>
       <t>"code" : {
-        "coding" : [{
-          "system" : "http://loinc.org",
-          "code" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>96778-6</t>
+    "coding" : [
+      {
+        "system" : "http://loinc.org",
+        "code" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>76690-7</t>
     </r>
     <r>
       <rPr>
@@ -3618,52 +3622,10 @@
         <scheme val="minor"/>
       </rPr>
       <t>",
-          "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>display</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" : "Problems with place where you live"
-        }],
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>text</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" : "Think about the place you live. Do you have problems with any of the following?"
-      },</t>
+        "display" : "Sexual orientation"
+      }
+    ]
+  },</t>
     </r>
   </si>
   <si>
@@ -3888,39 +3850,119 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>X-TechBD-Facility-ID'</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">X-TechBD-Facility-ID' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10.5"/>
         <color rgb="FF00B050"/>
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t> with the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>code.code</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10.5"/>
         <color rgb="FF00B050"/>
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> id.extension</t>
-    </r>
-    <r>
-      <rPr>
+      <t>with the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10.5"/>
         <color rgb="FF00B050"/>
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> value from the Observation element.</t>
-    </r>
-  </si>
-  <si>
-    <t>"id": "ACPNY-c6a74afc-5782-47e0-84b8-08e143d27c91"</t>
+      <t xml:space="preserve"> id.extension</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> value from the Observation element.
+If </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id.extension</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> is not available then add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>effectiveDateTime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> calculated.</t>
+    </r>
+  </si>
+  <si>
+    <t>"id": "ACPNY-96778-6-20260217000000"
+OR
+"id": "ACPNY-96778-6-flo1570000081-5810220439-97066-Z549669"</t>
   </si>
   <si>
     <t>"http://shinny.org/us/ny/hrsn/StructureDefinition/shinny-observation-screening-response"</t>
@@ -4177,6 +4219,88 @@
   </si>
   <si>
     <t>Same as category -&gt; coding -&gt; display</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"code" : {
+        "coding" : [{
+          "system" : "http://loinc.org",
+          "code" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>96778-6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+          "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>display</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" : "Problems with place where you live"
+        }],
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" : "Think about the place you live. Do you have problems with any of the following?"
+      },</t>
+    </r>
   </si>
   <si>
     <t>code.originalText</t>
@@ -5085,7 +5209,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5315,14 +5439,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -5338,7 +5454,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5351,9 +5467,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="9"/>
       <color rgb="FF00B050"/>
-      <name val="Segoe UI"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5364,9 +5480,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF00B050"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5834,7 +5964,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5894,6 +6024,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6466,18 +6599,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.88571428571429" style="26"/>
+    <col min="1" max="1" width="8.88571428571429" style="27"/>
     <col min="2" max="2" width="35.2190476190476" customWidth="1"/>
     <col min="3" max="3" width="92.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="26">
+      <c r="A3" s="27">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -6488,7 +6621,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="26">
+      <c r="A4" s="27">
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -6499,7 +6632,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="26">
+      <c r="A5" s="27">
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -6510,10 +6643,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="26">
+      <c r="A6" s="27">
         <v>4</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
@@ -6521,10 +6654,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="26">
+      <c r="A7" s="27">
         <v>5</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
@@ -6578,10 +6711,10 @@
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -6593,7 +6726,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" ht="60" spans="2:6">
@@ -6604,7 +6737,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F4" s="7"/>
     </row>
@@ -6623,25 +6756,25 @@
         <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D6"/>
       <c r="E6" s="4" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="4"/>
@@ -6651,13 +6784,13 @@
         <v>80</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>82</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" ht="60" spans="2:5">
@@ -6665,7 +6798,7 @@
         <v>84</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="4"/>
@@ -6675,7 +6808,7 @@
         <v>86</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="4"/>
@@ -6685,7 +6818,7 @@
         <v>88</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="4"/>
@@ -6695,7 +6828,7 @@
         <v>90</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="4"/>
@@ -6705,7 +6838,7 @@
         <v>92</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="4"/>
@@ -6715,17 +6848,17 @@
         <v>94</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="4"/>
@@ -6738,7 +6871,7 @@
         <v>189</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="4"/>
@@ -6748,7 +6881,7 @@
         <v>191</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="8"/>
@@ -6787,15 +6920,15 @@
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="14.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="28.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="65.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="66.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="46.2190476190476" customWidth="1"/>
     <col min="5" max="5" width="61.2857142857143" customWidth="1"/>
     <col min="6" max="6" width="46.2857142857143" customWidth="1"/>
@@ -6970,8 +7103,8 @@
   <sheetPr/>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -6988,19 +7121,19 @@
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7378,7 +7511,7 @@
         <v>75</v>
       </c>
       <c r="D38" s="14"/>
-      <c r="E38" s="29" t="s">
+      <c r="E38" s="30" t="s">
         <v>125</v>
       </c>
     </row>
@@ -7478,7 +7611,7 @@
       <c r="D47" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E47" s="24"/>
+      <c r="E47" s="25"/>
     </row>
     <row r="48" customFormat="1" spans="2:5">
       <c r="B48" s="4" t="s">
@@ -7718,8 +7851,8 @@
   <sheetPr/>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -7800,7 +7933,7 @@
       <c r="C6" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" ht="120" spans="2:6">
       <c r="B7" s="5" t="s">
@@ -8023,8 +8156,8 @@
   <sheetPr/>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -8044,7 +8177,7 @@
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -8148,7 +8281,7 @@
         <v>253</v>
       </c>
       <c r="D9" s="10"/>
-      <c r="E9" s="24"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="5" t="s">
@@ -8276,7 +8409,7 @@
       <c r="C22" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="E22" s="22"/>
+      <c r="E22" s="23"/>
     </row>
     <row r="23" ht="66" customHeight="1" spans="2:5">
       <c r="B23" t="s">
@@ -8340,7 +8473,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -8433,7 +8566,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="8" ht="63" customHeight="1" spans="2:4">
+    <row r="8" ht="63" customHeight="1" spans="2:6">
       <c r="B8" t="s">
         <v>299</v>
       </c>
@@ -8443,30 +8576,33 @@
       <c r="D8" s="10" t="s">
         <v>301</v>
       </c>
+      <c r="F8" s="20" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="8"/>
     </row>
     <row r="10" ht="30" spans="2:5">
       <c r="B10" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="8"/>
     </row>
     <row r="11" ht="30" spans="2:5">
       <c r="B11" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>133</v>
@@ -8476,48 +8612,51 @@
     </row>
     <row r="12" ht="30" spans="2:5">
       <c r="B12" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" customFormat="1" ht="66" customHeight="1" spans="2:4">
+    <row r="13" customFormat="1" ht="66" customHeight="1" spans="2:6">
       <c r="B13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:5">
       <c r="B14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="22"/>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" customFormat="1" ht="30" spans="2:5">
       <c r="B15" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="22"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" customFormat="1" ht="30" spans="2:5">
       <c r="B16" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>133</v>
@@ -8527,46 +8666,46 @@
     </row>
     <row r="17" customFormat="1" ht="30" spans="2:4">
       <c r="B17" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D17" s="10"/>
     </row>
     <row r="18" ht="60" spans="2:5">
       <c r="B18" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" ht="93" customHeight="1" spans="2:6">
       <c r="B19" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="2:6">
       <c r="B20" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="10"/>
       <c r="F20" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="50" customHeight="1" spans="2:6">
@@ -8575,7 +8714,7 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>98</v>
@@ -8587,7 +8726,7 @@
         <v>99</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D22" s="10"/>
       <c r="F22" s="4"/>
@@ -8597,7 +8736,7 @@
         <v>101</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="13" t="s">
@@ -8610,10 +8749,10 @@
         <v>84</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -8623,7 +8762,7 @@
         <v>80</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="4"/>
@@ -8634,7 +8773,7 @@
         <v>86</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="4"/>
@@ -8645,7 +8784,7 @@
         <v>88</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="4"/>
@@ -8656,7 +8795,7 @@
         <v>90</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="4"/>
@@ -8667,7 +8806,7 @@
         <v>92</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="4"/>
@@ -8678,7 +8817,7 @@
         <v>94</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="4"/>
@@ -8692,7 +8831,7 @@
         <v>189</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="46" customHeight="1" spans="2:4">
@@ -8700,7 +8839,7 @@
         <v>191</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D32" s="14"/>
     </row>
@@ -8723,8 +8862,8 @@
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -8758,8 +8897,8 @@
       </c>
     </row>
     <row r="2" ht="45" spans="1:1">
-      <c r="A2" s="21" t="s">
-        <v>341</v>
+      <c r="A2" s="22" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8768,7 +8907,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8780,7 +8919,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -8800,7 +8939,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -8814,7 +8953,7 @@
         <v>53</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" ht="150" spans="2:5">
@@ -8822,38 +8961,38 @@
         <v>198</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" ht="70" customHeight="1" spans="2:4">
       <c r="B9" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" ht="30" spans="2:4">
       <c r="B10" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>216</v>
@@ -8863,43 +9002,43 @@
     </row>
     <row r="12" ht="30" spans="2:4">
       <c r="B12" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D12" s="10"/>
     </row>
     <row r="13" ht="38" customHeight="1" spans="2:4">
       <c r="B13" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" ht="30" spans="2:4">
       <c r="B14" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D14" s="10"/>
     </row>
     <row r="15" ht="153" customHeight="1" spans="2:5">
       <c r="B15" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" ht="75" spans="2:4">
@@ -8923,27 +9062,27 @@
     </row>
     <row r="18" ht="90" spans="2:5">
       <c r="B18" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D18" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D19" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -8954,7 +9093,7 @@
         <v>189</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" ht="45" customHeight="1" spans="2:4">
@@ -8962,7 +9101,7 @@
         <v>191</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D21" s="14"/>
     </row>
@@ -8983,7 +9122,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -8991,7 +9130,7 @@
     <col min="1" max="1" width="14.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="34.5714285714286" customWidth="1"/>
     <col min="3" max="3" width="49.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="56.552380952381" customWidth="1"/>
+    <col min="4" max="4" width="58.7142857142857" customWidth="1"/>
     <col min="5" max="5" width="53.2857142857143" customWidth="1"/>
     <col min="6" max="6" width="50.2857142857143" customWidth="1"/>
   </cols>
@@ -9021,7 +9160,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -9034,19 +9173,19 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="4" ht="46.5" spans="1:4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" ht="78" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="D4" t="s">
         <v>375</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
@@ -9066,7 +9205,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -9080,7 +9219,7 @@
         <v>53</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" ht="150" spans="2:5">
@@ -9088,24 +9227,24 @@
         <v>198</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" ht="139" customHeight="1" spans="2:5">
       <c r="B9" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" ht="45" spans="2:5">
@@ -9113,11 +9252,11 @@
         <v>215</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" ht="210" spans="2:5">
@@ -9126,7 +9265,7 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" ht="210" spans="2:5">
@@ -9135,33 +9274,33 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" ht="84" customHeight="1" spans="2:5">
       <c r="B14" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>250</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>255</v>
@@ -9171,7 +9310,7 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>216</v>
@@ -9181,41 +9320,41 @@
     </row>
     <row r="17" ht="30" spans="2:5">
       <c r="B17" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="8" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" ht="105" spans="2:5">
       <c r="B18" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19" ht="30" spans="2:3">
       <c r="B19" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" ht="30" spans="2:3">
       <c r="B20" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C20" t="s">
         <v>216</v>
@@ -9223,35 +9362,35 @@
     </row>
     <row r="21" ht="37" customHeight="1" spans="2:5">
       <c r="B21" s="5" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E21" s="8"/>
     </row>
     <row r="22" ht="75" spans="2:5">
       <c r="B22" s="5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C22" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D22" s="12"/>
-      <c r="E22" s="20" t="s">
-        <v>398</v>
+      <c r="E22" s="21" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="23" ht="45" spans="2:5">
       <c r="B23" s="5" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="11" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24" ht="75" spans="2:4">
@@ -9275,48 +9414,48 @@
     </row>
     <row r="26" ht="45" spans="2:4">
       <c r="B26" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C26" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="27" ht="225" spans="2:5">
       <c r="B27" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="28" ht="45" spans="2:4">
       <c r="B28" s="5" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>229</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D29" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -9327,7 +9466,7 @@
         <v>189</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="31" ht="46" customHeight="1" spans="2:4">
@@ -9335,7 +9474,7 @@
         <v>191</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D31" s="14"/>
     </row>
@@ -9357,8 +9496,8 @@
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -9396,7 +9535,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -9409,7 +9548,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -9421,7 +9560,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
@@ -9441,7 +9580,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -9455,10 +9594,10 @@
         <v>53</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" ht="150" spans="2:5">
@@ -9466,56 +9605,56 @@
         <v>198</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" ht="409" customHeight="1" spans="2:5">
       <c r="B9" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" ht="165" spans="2:5">
       <c r="B10" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>250</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" ht="180" spans="2:5">
       <c r="B11" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C11" s="4"/>
       <c r="E11" s="11" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" ht="150" spans="2:5">
       <c r="B12" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C12" s="4"/>
       <c r="E12" s="11" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" ht="75" spans="2:4">
@@ -9539,61 +9678,61 @@
     </row>
     <row r="15" ht="45" spans="2:4">
       <c r="B15" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C15" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" ht="225" spans="2:5">
       <c r="B16" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" ht="45" spans="2:4">
       <c r="B17" s="5" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>229</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D18" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" ht="165" spans="2:5">
       <c r="B19" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E19" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -9604,7 +9743,7 @@
         <v>189</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" ht="46" customHeight="1" spans="2:4">
@@ -9612,7 +9751,7 @@
         <v>191</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D21" s="14"/>
     </row>
